--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC12_Verify_AddToCart_from_PDP.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC12_Verify_AddToCart_from_PDP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C7ABD-ECB6-4BDA-8FC2-4EA15F3E8E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031717F2-9025-4947-9F65-2595AAFEB25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,13 +193,13 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>SCROLL_DOWN</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -691,7 +691,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -704,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
@@ -745,7 +745,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -758,7 +758,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -771,7 +771,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>46</v>
@@ -786,7 +786,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -802,7 +802,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
@@ -817,7 +817,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -830,7 +830,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>52</v>
@@ -870,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1075,6 +1075,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1271,22 +1286,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1303,21 +1320,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>